--- a/docs/20190902 m90e26_calibrate.xlsx
+++ b/docs/20190902 m90e26_calibrate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\devs\ws\z-components\devices\m90e26\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F36A580-F2A5-4199-87BF-55DBB7352CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B71A1-7395-489E-924D-1D683AC29C20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57975" yWindow="1575" windowWidth="18330" windowHeight="20520" xr2:uid="{FE178CC8-A0CF-4137-A708-A44CFB898DD1}"/>
+    <workbookView xWindow="15510" yWindow="360" windowWidth="21030" windowHeight="20520" activeTab="1" xr2:uid="{FE178CC8-A0CF-4137-A708-A44CFB898DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulae" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="Cur_meaN">Formulae!$C$49</definedName>
     <definedName name="Gl">Formulae!$C$13</definedName>
     <definedName name="Ib">Formulae!$C$7</definedName>
+    <definedName name="Iratio">#REF!</definedName>
     <definedName name="Irms">Formulae!#REF!</definedName>
     <definedName name="Kn">Formulae!$C$59</definedName>
     <definedName name="KnQ">Formulae!$C$67</definedName>
@@ -49,6 +50,7 @@
     <definedName name="VlReg">Formulae!$C$43</definedName>
     <definedName name="Vn">Formulae!#REF!</definedName>
     <definedName name="Vol_mea">Formulae!$C$42</definedName>
+    <definedName name="Vratio">#REF!</definedName>
     <definedName name="Vu">Formulae!$C$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -1084,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165B2767-E119-42EF-B23D-1E7D6222F4D5}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F39AC36-C81D-9149-A2D5-F619065ABC3E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/docs/20190902 m90e26_calibrate.xlsx
+++ b/docs/20190902 m90e26_calibrate.xlsx
@@ -1,55 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\devs\ws\z-components\devices\m90e26\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B71A1-7395-489E-924D-1D683AC29C20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F942DE20-CF2C-4814-AD7B-4CDE7BBA294D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="360" windowWidth="21030" windowHeight="20520" activeTab="1" xr2:uid="{FE178CC8-A0CF-4137-A708-A44CFB898DD1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{FE178CC8-A0CF-4137-A708-A44CFB898DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulae" sheetId="1" r:id="rId1"/>
-    <sheet name="CT's" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="CT's" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_e">Formulae!$C$21</definedName>
+    <definedName name="_e">Formulae!$C$26</definedName>
     <definedName name="_el">Formulae!$C$35</definedName>
     <definedName name="Angle">Formulae!$C$36</definedName>
     <definedName name="Const3243">Formulae!$C$3</definedName>
     <definedName name="Const3244">Formulae!$C$4</definedName>
     <definedName name="Constant">Formulae!$C$2</definedName>
-    <definedName name="Cur_defL">Formulae!$C$27</definedName>
-    <definedName name="Cur_defN">Formulae!$C$50</definedName>
-    <definedName name="Cur_meaL">Formulae!$C$20</definedName>
-    <definedName name="Cur_meaN">Formulae!$C$49</definedName>
+    <definedName name="Cur_defL">Formulae!$C$64</definedName>
+    <definedName name="Cur_defN">Formulae!$C$69</definedName>
+    <definedName name="Cur_meaL">Formulae!$C$25</definedName>
+    <definedName name="Cur_meaN">Formulae!$C$71</definedName>
     <definedName name="Gl">Formulae!$C$13</definedName>
     <definedName name="Ib">Formulae!$C$7</definedName>
     <definedName name="Iratio">#REF!</definedName>
     <definedName name="Irms">Formulae!#REF!</definedName>
-    <definedName name="Kn">Formulae!$C$59</definedName>
-    <definedName name="KnQ">Formulae!$C$67</definedName>
-    <definedName name="Ks">Formulae!$C$55</definedName>
-    <definedName name="KsQ">Formulae!$C$63</definedName>
-    <definedName name="Lgain">Formulae!$C$23</definedName>
+    <definedName name="Kn">Formulae!$C$45</definedName>
+    <definedName name="KnQ">Formulae!$C$53</definedName>
+    <definedName name="Ks">Formulae!$C$41</definedName>
+    <definedName name="KsQ">Formulae!$C$49</definedName>
+    <definedName name="Lgain">Formulae!$C$28</definedName>
     <definedName name="Lphi">Formulae!$C$37</definedName>
-    <definedName name="Lratio">Formulae!$C$22</definedName>
+    <definedName name="Lratio">Formulae!$C$27</definedName>
     <definedName name="MC">Formulae!$C$5</definedName>
     <definedName name="Nx">Formulae!$C$8</definedName>
     <definedName name="Rb">Formulae!$C$10</definedName>
     <definedName name="RegX08">Formulae!#REF!</definedName>
-    <definedName name="RegX31">Formulae!$C$41</definedName>
-    <definedName name="RegX48">Formulae!$C$19</definedName>
-    <definedName name="Ugain">Formulae!$C$44</definedName>
+    <definedName name="RegX31">Formulae!#REF!</definedName>
+    <definedName name="RegX48">Formulae!$C$24</definedName>
+    <definedName name="Ugain">Formulae!$C$60</definedName>
     <definedName name="Un">Formulae!$C$6</definedName>
     <definedName name="Vl">Formulae!$C$14</definedName>
-    <definedName name="VlReg">Formulae!$C$43</definedName>
+    <definedName name="VlReg">Formulae!$C$58</definedName>
     <definedName name="Vn">Formulae!#REF!</definedName>
-    <definedName name="Vol_mea">Formulae!$C$42</definedName>
+    <definedName name="Vol_mea">Formulae!$C$59</definedName>
     <definedName name="Vratio">#REF!</definedName>
     <definedName name="Vu">Formulae!$C$9</definedName>
   </definedNames>
@@ -67,8 +68,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>AMM</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{2D845586-2175-4FD7-932C-F0ACE8F5760F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>As per example
+200u Ohm</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="173">
   <si>
     <t>Un</t>
   </si>
@@ -82,9 +108,6 @@
     <t>Vl</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Symbol</t>
   </si>
   <si>
@@ -139,9 +162,6 @@
     <t>VlReg</t>
   </si>
   <si>
-    <t>Vol_mea</t>
-  </si>
-  <si>
     <t>Cur_meaL</t>
   </si>
   <si>
@@ -163,33 +183,12 @@
     <t>Cur_meaN</t>
   </si>
   <si>
-    <t>PLconstant</t>
-  </si>
-  <si>
-    <t>Startup/NoLoad, Power/Current Threshold</t>
-  </si>
-  <si>
-    <t>L Line Current RMS Gain</t>
-  </si>
-  <si>
-    <t>N Line Current RMS Gain</t>
-  </si>
-  <si>
-    <t>As measured using multimeter</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Calculated based on resistor network</t>
   </si>
   <si>
-    <t>L Line Angle (PF=0.5L, F=50Hz, current=Ib)</t>
-  </si>
-  <si>
-    <t>L Line Gain (PF=1.0, current=Ib)</t>
-  </si>
-  <si>
     <t>Current Transformer Ratio</t>
   </si>
   <si>
@@ -199,9 +198,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Power Offset Compensation</t>
-  </si>
-  <si>
     <t>Done using software</t>
   </si>
   <si>
@@ -292,9 +288,6 @@
     <t>Ohm</t>
   </si>
   <si>
-    <t>Dual 5.8Ohm burden resistors</t>
-  </si>
-  <si>
     <t>Based on lGain[2:0] translated to value 1/4/8/16/24</t>
   </si>
   <si>
@@ -349,9 +342,6 @@
     <t>Ugain Default Value (hardcoded)</t>
   </si>
   <si>
-    <t>L Line Voltage RMS Gain</t>
-  </si>
-  <si>
     <t>RegX32</t>
   </si>
   <si>
@@ -394,9 +384,6 @@
     <t>HEX &lt;======</t>
   </si>
   <si>
-    <t>======&gt; HEX</t>
-  </si>
-  <si>
     <t>L Line Current RMS Gain Default</t>
   </si>
   <si>
@@ -424,9 +411,6 @@
     <t>L line Current sampling voltage at Ib</t>
   </si>
   <si>
-    <t>Checked</t>
-  </si>
-  <si>
     <t>L-Line Phase Angle METERED</t>
   </si>
   <si>
@@ -469,9 +453,6 @@
     <t>Where to we get/estimate this from ?????</t>
   </si>
   <si>
-    <t>6019</t>
-  </si>
-  <si>
     <t>Reference Voltage METERED</t>
   </si>
   <si>
@@ -484,15 +465,6 @@
     <t>Use x10d7 for Lgain &amp; x1A58 for Igain</t>
   </si>
   <si>
-    <t>1a58</t>
-  </si>
-  <si>
-    <t>Current Offset compensation</t>
-  </si>
-  <si>
-    <t>Done using software, check logic of /2^16 &amp; /2^8 ie /2^24 ?</t>
-  </si>
-  <si>
     <t>RegX28</t>
   </si>
   <si>
@@ -562,16 +534,85 @@
     <t>Check power, should be right</t>
   </si>
   <si>
-    <t>L Line Voltage RMS Gain Register</t>
+    <t>LEAVE, default</t>
+  </si>
+  <si>
+    <t>Vol_mea(X49)</t>
   </si>
   <si>
     <t>L Line Voltage RMS Gain Measured</t>
   </si>
   <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>6720</t>
+    <t>Dual 5.8Ohm burden resistors, what is correct value</t>
+  </si>
+  <si>
+    <t>Done using software M90P {x}</t>
+  </si>
+  <si>
+    <t>#1 - Plconstant (see 3.2.2)</t>
+  </si>
+  <si>
+    <t>#2 - Mmode Register (see 3.2.3)</t>
+  </si>
+  <si>
+    <t>#3 - Power Offset Compensation (see 3.2.4.1)</t>
+  </si>
+  <si>
+    <t>#4 - L Line Gain (PF=1.0, current=Ib) (see 3.2.4.2)</t>
+  </si>
+  <si>
+    <t>#5 L Line Angle (PF=0.5L, F=50Hz, current=Ib) (see 3.2.4.3)</t>
+  </si>
+  <si>
+    <t>#6 - Startup/NoLoad, Power/Current Threshold (see 3.2.4.4)</t>
+  </si>
+  <si>
+    <t>#7.1 - L Line Voltage RMS Gain (see 3.2.4.5)</t>
+  </si>
+  <si>
+    <t>#7.2 - L Line Current RMS Gain</t>
+  </si>
+  <si>
+    <t>#8 - N Line Current RMS Gain (see 3.2.5.x)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Kettle</t>
+  </si>
+  <si>
+    <t>Oil heater</t>
+  </si>
+  <si>
+    <t>incandescent lamp</t>
+  </si>
+  <si>
+    <t>resistive</t>
+  </si>
+  <si>
+    <t>Load (watt)</t>
+  </si>
+  <si>
+    <t>Extraction fan</t>
+  </si>
+  <si>
+    <t>Resistive</t>
+  </si>
+  <si>
+    <t>As measured using multimeter (with reference load active)</t>
+  </si>
+  <si>
+    <t>1b9e</t>
+  </si>
+  <si>
+    <t>1ba7</t>
+  </si>
+  <si>
+    <t>5c86</t>
+  </si>
+  <si>
+    <t>#9 - Current Offset compensation (see 3.2.4.1)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +626,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,8 +671,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,9 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,15 +766,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,17 +789,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -768,7 +815,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1083,1106 +1166,1165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165B2767-E119-42EF-B23D-1E7D6222F4D5}">
-  <dimension ref="A1:H79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165B2767-E119-42EF-B23D-1E7D6222F4D5}">
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="65.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11">
+        <v>838860800</v>
+      </c>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="12">
-        <v>838860800</v>
-      </c>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="11">
+        <v>68</v>
+      </c>
+      <c r="C3" s="10">
         <v>3763.74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>127</v>
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="37">
+        <v>111</v>
+      </c>
+      <c r="C4" s="32">
         <v>93.206755599999994</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="21">
+        <v>3200</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24">
-        <v>3200</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>134</v>
+    </row>
+    <row r="6" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28">
-        <v>237</v>
+      <c r="C6" s="25">
+        <v>238.7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7">
         <v>220.024</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>135</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
-        <v>2.35</v>
+      <c r="C7" s="25">
+        <v>7.14</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7">
         <v>5.008</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="38">
-        <v>5000</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7">
         <v>1E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11">
-        <f>Un*(1/880)*1000</f>
-        <v>269.31818181818181</v>
+      <c r="C9" s="10">
+        <f>Un*(1/881)*1000</f>
+        <v>270.94211123723039</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="26">
-        <f>2*5.8</f>
+        <v>62</v>
+      </c>
+      <c r="C10" s="23">
         <v>11.6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
+      <c r="G10" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="48"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>116</v>
+    </row>
+    <row r="13" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="33">
         <v>1</v>
       </c>
+      <c r="F13" s="7">
+        <v>24</v>
+      </c>
       <c r="G13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>117</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="46">
-        <f>Ib/Nx*Rb</f>
-        <v>5.4520000000000002E-3</v>
+      <c r="C14" s="24">
+        <f>(Ib/Nx*Rb)*1000</f>
+        <v>41.411999999999999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="41">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="36">
         <f>Constant*(Gl*Vl*Vu)/(MC*Un*Ib)</f>
-        <v>691.10690909090908</v>
+        <v>1725806.1293984109</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="30" t="str">
-        <f>DEC2HEX(ROUND(C15,0),8)</f>
-        <v>000002B3</v>
+        <v>74</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="42" t="str">
+        <f>"x" &amp; DEC2HEX(ROUND(C15,0),8)</f>
+        <v>x001A556E</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="E16" s="28"/>
       <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="F23" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="29">
+        <f>HEX2DEC(F24)</f>
+        <v>7079</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14">
+        <f>HEX2DEC(RegX48)/1000</f>
+        <v>28.792999999999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="15">
+        <f>(Cur_meaL-Ib)/Ib</f>
+        <v>3.0326330532212884</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="34">
+        <f>-_e/(1+_e)</f>
+        <v>-0.75202306116069872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="14">
+        <f>IF(Lratio&gt;=0, Lratio*2^15, 2^16 + (Lratio * 2^15))</f>
+        <v>40893.708331886228</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="42" t="str">
+        <f>"x" &amp; DEC2HEX(ROUND(C28,0),4)</f>
+        <v>x9FBE</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="31">
+        <v>1.0095000000000001</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1.01</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5" t="str">
+        <f>E24</f>
+        <v>HEX &lt;======</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="24">
+        <f>IF(HEX2DEC(C33)&gt;=32768,-(HEX2DEC(C33)-32768)/10,HEX2DEC(C33)/10)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="15">
+        <f>(C32-C34)/C34</f>
+        <v>9.5000000000000639E-3</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="34">
+        <f>-_el*180/SQRT(3)/PI()</f>
+        <v>-0.31425747039042362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="14">
+        <f>_el*Const3243</f>
+        <v>35.755530000000242</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="42" t="str">
+        <f>DEC2HEX(ROUND(C37,0),4)</f>
+        <v>0024</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="G38" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="14">
+        <f>Const3244*Gl*Vl*Vu*Ks</f>
+        <v>4183.2141543062362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="42" t="str">
+        <f>DEC2HEX(ROUND(C42,0),4)</f>
+        <v>1057</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="G43" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G45" s="37" t="str">
+        <f>G41</f>
+        <v>Where to we get/estimate this from ?????</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="14">
+        <f>Const3244*Gl*Vl*Vu*Kn</f>
+        <v>4183.2141543062362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="C47" s="42" t="str">
+        <f>DEC2HEX(ROUND(C46,0),4)</f>
+        <v>1057</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="49" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G49" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="15">
-        <f>HEX2DEC(RegX48)/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16">
-        <f>(Cur_meaL-Ib)/Ib</f>
-        <v>-0.9965957446808511</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="39">
-        <f>-_e/(1+_e)</f>
-        <v>292.75000000000341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="15">
-        <f>IF(Lratio&gt;=0, Lratio*2^15, 2^16 + (Lratio * 2^15))</f>
-        <v>9592832.0000001118</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="30" t="e">
-        <f>DEC2HEX(ROUND(C23,0),4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="32" t="str">
-        <f>E16</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="12">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="14">
+        <f>Const3244*Gl*Vl*Vu*KsQ</f>
+        <v>4183.2141543062362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="42" t="str">
+        <f>DEC2HEX(ROUND(C50,0),4)</f>
+        <v>1057</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="G51" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="1:7" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G53" s="37" t="str">
+        <f>G49</f>
+        <v>Where to we get/estimate this from ?????</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="14">
+        <f>Const3244*Gl*Vl*Vu*KnQ</f>
+        <v>4183.2141543062362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="42" t="str">
+        <f>DEC2HEX(ROUND(C54,0),4)</f>
+        <v>1057</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="G55" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="46"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="44">
+        <f>HEX2DEC("6720")</f>
+        <v>26400</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="22"/>
+      <c r="G58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="10">
+        <f>HEX2DEC(F59)/100</f>
+        <v>236.86</v>
+      </c>
+      <c r="E59" s="30" t="str">
+        <f>E24</f>
+        <v>HEX &lt;======</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="14">
+        <f>(VlReg*Un)/Vol_mea</f>
+        <v>26605.083171493709</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="55" t="str">
+        <f>"x" &amp; DEC2HEX(ROUND(C60,0),4)</f>
+        <v>x67ED</v>
+      </c>
+      <c r="E61" s="28"/>
+      <c r="G61" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="11">
         <f>HEX2DEC("7a13")</f>
         <v>31251</v>
       </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="41">
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="36">
         <f>(Cur_defL*Ib)/Cur_meaL</f>
-        <v>9179981.25</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="30" t="e">
-        <f>DEC2HEX(ROUND(C28,0),4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="32" t="str">
-        <f>E16</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="36">
-        <v>1.0095000000000001</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="40">
-        <v>1.01</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="14" t="s">
+        <v>7749.5273156670019</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="42" t="str">
+        <f>DEC2HEX(ROUND(C65,0),4)</f>
+        <v>1E46</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5" t="str">
-        <f>E19</f>
-        <v>HEX &lt;======</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="27">
-        <f>IF(HEX2DEC(C33)&gt;=32768,-(HEX2DEC(C33)-32768)/10,HEX2DEC(C33)/10)</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="16">
-        <f>(C32-C34)/C34</f>
-        <v>9.5000000000000639E-3</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="39">
-        <f>-_el*180/SQRT(3)/PI()</f>
-        <v>-0.31425747039042362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="15">
-        <f>_el*Const3243</f>
-        <v>35.755530000000242</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30" t="str">
-        <f>DEC2HEX(ROUND(C37,0),4)</f>
-        <v>0024</v>
-      </c>
-      <c r="E38" s="32" t="str">
-        <f>E16</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="5" t="str">
-        <f>E19</f>
-        <v>HEX &lt;======</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="11">
-        <f>HEX2DEC(RegX31)/100</f>
-        <v>264</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="12">
-        <f>HEX2DEC("6720")</f>
-        <v>26400</v>
-      </c>
-      <c r="E43" s="25"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="15">
-        <f>(VlReg*Un)/Vol_mea</f>
-        <v>23700</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="30" t="str">
-        <f>DEC2HEX(ROUND(C44,0),4)</f>
-        <v>5C94</v>
-      </c>
-      <c r="E45" s="32" t="str">
-        <f>E16</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="33">
-        <v>7530</v>
-      </c>
-      <c r="E48" s="5" t="str">
-        <f>E19</f>
-        <v>HEX &lt;======</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="15">
-        <f>HEX2DEC(C48)/1000</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="44">
         <f>HEX2DEC("7530")</f>
         <v>30000</v>
       </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="E69" s="26"/>
+      <c r="F69" s="45"/>
+      <c r="G69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="53">
+        <f>HEX2DEC(F70)</f>
+        <v>30000</v>
+      </c>
+      <c r="E70" s="5" t="str">
+        <f>E24</f>
+        <v>HEX &lt;======</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="14">
+        <f>HEX2DEC(C70)/1000</f>
+        <v>196.608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="12">
         <f>(Cur_defN*Ib)/Cur_meaN</f>
-        <v>2350</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="30" t="str">
-        <f>DEC2HEX(ROUND(C51,0),4)</f>
-        <v>092E</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="32" t="str">
-        <f>E16</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G55" s="42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="15">
-        <f>Const3244*Gl*Vl*Vu*Ks</f>
-        <v>0.54743039033133822</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="30" t="str">
-        <f>DEC2HEX(ROUND(C56,0),4)</f>
-        <v>0001</v>
-      </c>
-      <c r="E57" s="35" t="str">
-        <f>E52</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G59" s="42" t="str">
-        <f>G55</f>
-        <v>Where to we get/estimate this from ?????</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+        <v>1089.4775390625</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="42" t="str">
+        <f>DEC2HEX(ROUND(C72,0),4)</f>
+        <v>0441</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="28"/>
+      <c r="G73" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="15">
-        <f>Const3244*Gl*Vl*Vu*Kn</f>
-        <v>0.54743039033133822</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="30" t="str">
-        <f>DEC2HEX(ROUND(C60,0),4)</f>
-        <v>0001</v>
-      </c>
-      <c r="E61" s="35" t="str">
-        <f>E16</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="H61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="15">
-        <f>Const3244*Gl*Vl*Vu*KsQ</f>
-        <v>0.54743039033133822</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="30" t="str">
-        <f>DEC2HEX(ROUND(C64,0),4)</f>
-        <v>0001</v>
-      </c>
-      <c r="E65" s="35" t="str">
-        <f>E57</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F67" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G67" s="42" t="str">
-        <f>G63</f>
-        <v>Where to we get/estimate this from ?????</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="15">
-        <f>Const3244*Gl*Vl*Vu*KnQ</f>
-        <v>0.54743039033133822</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="30" t="str">
-        <f>DEC2HEX(ROUND(C68,0),4)</f>
-        <v>0001</v>
-      </c>
-      <c r="E69" s="35" t="str">
-        <f>E24</f>
-        <v>======&gt; HEX</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H69" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F41 F48 C41" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECB9529-3BF0-4FC4-AA9F-8A1876B797EC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="34.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F39AC36-C81D-9149-A2D5-F619065ABC3E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G2" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>6</v>
